--- a/ResultadoEleicoesDistritos/R. A. MADEIRA_CÂMARA DE LOBOS.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. MADEIRA_CÂMARA DE LOBOS.xlsx
@@ -597,64 +597,64 @@
         <v>9772</v>
       </c>
       <c r="H2" t="n">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="I2" t="n">
-        <v>939</v>
+        <v>977</v>
       </c>
       <c r="J2" t="n">
-        <v>4021</v>
+        <v>3994</v>
       </c>
       <c r="K2" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="L2" t="n">
-        <v>1180</v>
+        <v>1097</v>
       </c>
       <c r="M2" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N2" t="n">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S2" t="n">
-        <v>479</v>
+        <v>409</v>
       </c>
       <c r="T2" t="n">
-        <v>746</v>
+        <v>704</v>
       </c>
       <c r="U2" t="n">
         <v>49</v>
       </c>
       <c r="V2" t="n">
-        <v>6240</v>
+        <v>6324</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>6198</v>
+        <v>6216</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="AA2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
